--- a/data/fixedparams.xlsx
+++ b/data/fixedparams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cindy Pang\nc-county-infection-estimates\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFB8C09-783F-4496-A100-94BE3876A119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEF44A2-A399-4CF3-B1C7-78A05BB36748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10284" yWindow="2856" windowWidth="13800" windowHeight="7092" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>AgeGroup</t>
-  </si>
-  <si>
-    <t>std_mean</t>
-  </si>
-  <si>
-    <t>std_sd</t>
   </si>
   <si>
     <t>incubation_mean</t>
@@ -405,11 +399,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,32 +412,26 @@
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>8.82</v>
@@ -452,17 +440,10 @@
         <f>(9.45-8.19)/1.96</f>
         <v>0.64285714285714279</v>
       </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <f>(31-10)/0.675</f>
-        <v>31.111111111111111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>6.65</v>
@@ -471,13 +452,10 @@
         <f>(6.96-B3)/1.96</f>
         <v>0.15816326530612226</v>
       </c>
-      <c r="D3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>6.65</v>
@@ -486,13 +464,10 @@
         <f t="shared" ref="C4:C5" si="0">(6.96-B4)/1.96</f>
         <v>0.15816326530612226</v>
       </c>
-      <c r="D4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>6.65</v>
@@ -501,13 +476,10 @@
         <f t="shared" si="0"/>
         <v>0.15816326530612226</v>
       </c>
-      <c r="D5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>7.43</v>
@@ -516,13 +488,10 @@
         <f>(9.11-B6)/1.96</f>
         <v>0.85714285714285698</v>
       </c>
-      <c r="D6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>7.43</v>
@@ -531,13 +500,10 @@
         <f>(9.11-B7)/1.96</f>
         <v>0.85714285714285698</v>
       </c>
-      <c r="D7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
